--- a/Labo8_Liaison_serie/Planning.xlsx
+++ b/Labo8_Liaison_serie/Planning.xlsx
@@ -3,21 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CBF107-F426-475F-862C-D99077521FC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67288653-88F9-4BD2-96B8-56B5535DDF8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Test et dépannage</t>
   </si>
@@ -52,9 +50,6 @@
     <t>Réalisation des organigrammes évolués</t>
   </si>
   <si>
-    <t>Réalisation des schémas blocs</t>
-  </si>
-  <si>
     <t>Déscription VHDL des blocs</t>
   </si>
   <si>
@@ -74,6 +69,12 @@
   </si>
   <si>
     <t>Déscription VHDL</t>
+  </si>
+  <si>
+    <t>Réalisation du schéma UT et UC</t>
+  </si>
+  <si>
+    <t>Gaëtan Bacso et Spinelli Isaia</t>
   </si>
 </sst>
 </file>
@@ -185,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -405,15 +406,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -473,17 +465,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -560,18 +541,18 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -586,12 +567,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -605,21 +580,129 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -638,119 +721,17 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1098,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AK74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1113,17 +1094,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:37" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-    </row>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="1"/>
+      <c r="B4" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="82"/>
       <c r="D4" s="1"/>
       <c r="E4" s="4"/>
       <c r="F4" s="1"/>
@@ -1139,51 +1124,51 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="2:37" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="26"/>
-      <c r="AJ5" s="26"/>
-      <c r="AK5" s="27"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="80"/>
+      <c r="AF5" s="80"/>
+      <c r="AG5" s="80"/>
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="80"/>
+      <c r="AJ5" s="80"/>
+      <c r="AK5" s="80"/>
     </row>
     <row r="6" spans="2:37" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="9">
         <v>51</v>
       </c>
@@ -1202,1101 +1187,1101 @@
       <c r="J6" s="11">
         <v>4</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="28"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="26"/>
     </row>
     <row r="7" spans="2:37" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="12">
         <v>43818</v>
       </c>
       <c r="F7" s="15">
         <v>43825</v>
       </c>
-      <c r="G7" s="80">
+      <c r="G7" s="44">
         <v>43832</v>
       </c>
-      <c r="H7" s="81">
+      <c r="H7" s="45">
         <v>43839</v>
       </c>
       <c r="I7" s="12">
         <v>43846</v>
       </c>
-      <c r="J7" s="82">
+      <c r="J7" s="46">
         <v>43853</v>
       </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="27"/>
     </row>
     <row r="8" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="30"/>
-      <c r="AG8" s="30"/>
-      <c r="AH8" s="30"/>
-      <c r="AI8" s="30"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="30"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="28"/>
     </row>
     <row r="9" spans="2:37" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30"/>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="28"/>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="76"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="30"/>
-      <c r="AG10" s="30"/>
-      <c r="AH10" s="30"/>
-      <c r="AI10" s="30"/>
-      <c r="AJ10" s="30"/>
-      <c r="AK10" s="30"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
+      <c r="AK10" s="28"/>
     </row>
     <row r="11" spans="2:37" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="76"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="30"/>
-      <c r="AI11" s="30"/>
-      <c r="AJ11" s="30"/>
-      <c r="AK11" s="30"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="28"/>
+      <c r="AK11" s="28"/>
     </row>
     <row r="12" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="16"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="76"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="30"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="30"/>
-      <c r="AE12" s="30"/>
-      <c r="AF12" s="30"/>
-      <c r="AG12" s="30"/>
-      <c r="AH12" s="30"/>
-      <c r="AI12" s="30"/>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="30"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="28"/>
+      <c r="AK12" s="28"/>
     </row>
     <row r="13" spans="2:37" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="69"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="18"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="30"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="30"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="28"/>
+      <c r="AK13" s="28"/>
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+    </row>
+    <row r="15" spans="2:37" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="28"/>
+    </row>
+    <row r="16" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B16" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="30"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="30"/>
-    </row>
-    <row r="15" spans="2:37" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="30"/>
-      <c r="AH15" s="30"/>
-      <c r="AI15" s="30"/>
-      <c r="AJ15" s="30"/>
-      <c r="AK15" s="30"/>
-    </row>
-    <row r="16" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B16" s="36" t="s">
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="28"/>
+    </row>
+    <row r="17" spans="2:37" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="28"/>
+    </row>
+    <row r="18" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B18" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="30"/>
-      <c r="AI16" s="30"/>
-      <c r="AJ16" s="30"/>
-      <c r="AK16" s="30"/>
-    </row>
-    <row r="17" spans="2:37" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="57"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="30"/>
-      <c r="AH17" s="30"/>
-      <c r="AI17" s="30"/>
-      <c r="AJ17" s="30"/>
-      <c r="AK17" s="30"/>
-    </row>
-    <row r="18" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B18" s="58" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="28"/>
+    </row>
+    <row r="19" spans="2:37" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="28"/>
+    </row>
+    <row r="20" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B20" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="30"/>
-      <c r="AJ18" s="30"/>
-      <c r="AK18" s="30"/>
-    </row>
-    <row r="19" spans="2:37" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="57"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="30"/>
-      <c r="AI19" s="30"/>
-      <c r="AJ19" s="30"/>
-      <c r="AK19" s="30"/>
-    </row>
-    <row r="20" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B20" s="58" t="s">
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="28"/>
+    </row>
+    <row r="21" spans="2:37" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="28"/>
+    </row>
+    <row r="22" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B22" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="30"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="30"/>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="30"/>
-    </row>
-    <row r="21" spans="2:37" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="30"/>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="30"/>
-    </row>
-    <row r="22" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B22" s="46" t="s">
+      <c r="C22" s="60"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="28"/>
+    </row>
+    <row r="23" spans="2:37" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="28"/>
+    </row>
+    <row r="24" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B24" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="30"/>
-      <c r="AI22" s="30"/>
-      <c r="AJ22" s="30"/>
-      <c r="AK22" s="30"/>
-    </row>
-    <row r="23" spans="2:37" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="57"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="30"/>
-      <c r="AK23" s="30"/>
-    </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B24" s="36" t="s">
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="48"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="28"/>
+    </row>
+    <row r="25" spans="2:37" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
+      <c r="AK25" s="28"/>
+    </row>
+    <row r="26" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B26" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="57"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="30"/>
-      <c r="AK24" s="30"/>
-    </row>
-    <row r="25" spans="2:37" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="30"/>
-      <c r="AF25" s="30"/>
-      <c r="AG25" s="30"/>
-      <c r="AH25" s="30"/>
-      <c r="AI25" s="30"/>
-      <c r="AJ25" s="30"/>
-      <c r="AK25" s="30"/>
-    </row>
-    <row r="26" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B26" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="76"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="30"/>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="30"/>
-      <c r="AF26" s="30"/>
-      <c r="AG26" s="30"/>
-      <c r="AH26" s="30"/>
-      <c r="AI26" s="30"/>
-      <c r="AJ26" s="30"/>
-      <c r="AK26" s="30"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="28"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="28"/>
+      <c r="AK26" s="28"/>
     </row>
     <row r="27" spans="2:37" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="18"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="42"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="76"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="30"/>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="30"/>
-      <c r="AI27" s="30"/>
-      <c r="AJ27" s="30"/>
-      <c r="AK27" s="30"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="48"/>
+      <c r="AA27" s="48"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="28"/>
+      <c r="AG27" s="28"/>
+      <c r="AH27" s="28"/>
+      <c r="AI27" s="28"/>
+      <c r="AJ27" s="28"/>
+      <c r="AK27" s="28"/>
     </row>
     <row r="28" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B28" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="66"/>
+      <c r="B28" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="50"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="34"/>
       <c r="I28" s="18"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="30"/>
-      <c r="AD28" s="30"/>
-      <c r="AE28" s="30"/>
-      <c r="AF28" s="30"/>
-      <c r="AG28" s="30"/>
-      <c r="AH28" s="30"/>
-      <c r="AI28" s="30"/>
-      <c r="AJ28" s="30"/>
-      <c r="AK28" s="30"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="48"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="28"/>
+      <c r="AI28" s="28"/>
+      <c r="AJ28" s="28"/>
+      <c r="AK28" s="28"/>
     </row>
     <row r="29" spans="2:37" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="66"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="34"/>
       <c r="I29" s="18"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="30"/>
-      <c r="AE29" s="30"/>
-      <c r="AF29" s="30"/>
-      <c r="AG29" s="30"/>
-      <c r="AH29" s="30"/>
-      <c r="AI29" s="30"/>
-      <c r="AJ29" s="30"/>
-      <c r="AK29" s="30"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="28"/>
+      <c r="AG29" s="28"/>
+      <c r="AH29" s="28"/>
+      <c r="AI29" s="28"/>
+      <c r="AJ29" s="28"/>
+      <c r="AK29" s="28"/>
     </row>
     <row r="30" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="60"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="54"/>
       <c r="E30" s="19"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="66"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="34"/>
       <c r="I30" s="18"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="57"/>
-      <c r="AA30" s="57"/>
-      <c r="AB30" s="30"/>
-      <c r="AC30" s="30"/>
-      <c r="AD30" s="30"/>
-      <c r="AE30" s="30"/>
-      <c r="AF30" s="30"/>
-      <c r="AG30" s="30"/>
-      <c r="AH30" s="30"/>
-      <c r="AI30" s="30"/>
-      <c r="AJ30" s="30"/>
-      <c r="AK30" s="30"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="48"/>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="28"/>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="28"/>
+      <c r="AG30" s="28"/>
+      <c r="AH30" s="28"/>
+      <c r="AI30" s="28"/>
+      <c r="AJ30" s="28"/>
+      <c r="AK30" s="28"/>
     </row>
     <row r="31" spans="2:37" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="60"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="54"/>
       <c r="E31" s="19"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="57"/>
-      <c r="AA31" s="57"/>
-      <c r="AB31" s="30"/>
-      <c r="AC31" s="30"/>
-      <c r="AD31" s="30"/>
-      <c r="AE31" s="30"/>
-      <c r="AF31" s="30"/>
-      <c r="AG31" s="30"/>
-      <c r="AH31" s="30"/>
-      <c r="AI31" s="30"/>
-      <c r="AJ31" s="30"/>
-      <c r="AK31" s="30"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="48"/>
+      <c r="AA31" s="48"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="28"/>
+      <c r="AG31" s="28"/>
+      <c r="AH31" s="28"/>
+      <c r="AI31" s="28"/>
+      <c r="AJ31" s="28"/>
+      <c r="AK31" s="28"/>
     </row>
     <row r="32" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="60"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="76"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="57"/>
-      <c r="AA32" s="57"/>
-      <c r="AB32" s="30"/>
-      <c r="AC32" s="30"/>
-      <c r="AD32" s="30"/>
-      <c r="AE32" s="30"/>
-      <c r="AF32" s="30"/>
-      <c r="AG32" s="30"/>
-      <c r="AH32" s="30"/>
-      <c r="AI32" s="30"/>
-      <c r="AJ32" s="30"/>
-      <c r="AK32" s="30"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="48"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="28"/>
+      <c r="AH32" s="28"/>
+      <c r="AI32" s="28"/>
+      <c r="AJ32" s="28"/>
+      <c r="AK32" s="28"/>
     </row>
     <row r="33" spans="2:37" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="77"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="79"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="57"/>
-      <c r="AA33" s="57"/>
-      <c r="AB33" s="30"/>
-      <c r="AC33" s="30"/>
-      <c r="AD33" s="30"/>
-      <c r="AE33" s="30"/>
-      <c r="AF33" s="30"/>
-      <c r="AG33" s="30"/>
-      <c r="AH33" s="30"/>
-      <c r="AI33" s="30"/>
-      <c r="AJ33" s="30"/>
-      <c r="AK33" s="30"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="48"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="28"/>
+      <c r="AG33" s="28"/>
+      <c r="AH33" s="28"/>
+      <c r="AI33" s="28"/>
+      <c r="AJ33" s="28"/>
+      <c r="AK33" s="28"/>
     </row>
     <row r="34" spans="2:37" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="2"/>
@@ -2369,10 +2354,10 @@
       <c r="D38" s="14"/>
       <c r="E38" s="22"/>
       <c r="F38" s="14"/>
-      <c r="G38" s="35" t="s">
+      <c r="G38" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="35"/>
+      <c r="H38" s="71"/>
       <c r="I38" s="14"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -2387,8 +2372,8 @@
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
       <c r="I39" s="14"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2431,35 +2416,35 @@
       <c r="P41" s="1"/>
     </row>
     <row r="42" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
       <c r="P42" s="1"/>
     </row>
     <row r="43" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
       <c r="P43" s="1"/>
     </row>
     <row r="44" spans="2:37" x14ac:dyDescent="0.3">
@@ -2623,35 +2608,35 @@
       <c r="P53" s="1"/>
     </row>
     <row r="54" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="34"/>
-      <c r="O54" s="34"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
       <c r="P54" s="1"/>
     </row>
     <row r="55" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
+      <c r="L55" s="71"/>
+      <c r="M55" s="71"/>
+      <c r="N55" s="71"/>
+      <c r="O55" s="71"/>
       <c r="P55" s="1"/>
     </row>
     <row r="56" spans="3:16" x14ac:dyDescent="0.3">
@@ -2815,35 +2800,35 @@
       <c r="P65" s="1"/>
     </row>
     <row r="66" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="34"/>
+      <c r="L66" s="72"/>
+      <c r="M66" s="72"/>
+      <c r="N66" s="72"/>
+      <c r="O66" s="72"/>
       <c r="P66" s="1"/>
     </row>
     <row r="67" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="35"/>
+      <c r="L67" s="71"/>
+      <c r="M67" s="71"/>
+      <c r="N67" s="71"/>
+      <c r="O67" s="71"/>
       <c r="P67" s="1"/>
     </row>
     <row r="68" spans="3:16" x14ac:dyDescent="0.3">
@@ -2959,31 +2944,7 @@
       <c r="P74" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="S8:S33"/>
-    <mergeCell ref="Z8:AA33"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="B16:D17"/>
-    <mergeCell ref="B18:D19"/>
-    <mergeCell ref="B20:D21"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B8:D9"/>
-    <mergeCell ref="B10:D11"/>
-    <mergeCell ref="B12:D13"/>
-    <mergeCell ref="B14:D15"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="L66:O66"/>
+  <mergeCells count="41">
     <mergeCell ref="C54:F54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="E55:F55"/>
@@ -3000,32 +2961,33 @@
     <mergeCell ref="F8:G33"/>
     <mergeCell ref="G38:H39"/>
     <mergeCell ref="K8:L32"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="B10:D11"/>
+    <mergeCell ref="B12:D13"/>
+    <mergeCell ref="B14:D15"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="S8:S33"/>
+    <mergeCell ref="Z8:AA33"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="B16:D17"/>
+    <mergeCell ref="B18:D19"/>
+    <mergeCell ref="B20:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Labo8_Liaison_serie/Planning.xlsx
+++ b/Labo8_Liaison_serie/Planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BB9CC1-81E3-458A-B3DC-661BFCDA5495}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39E76F4-7619-4B1B-8817-CE19F5AF2231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Réalisation de l'organigramme grossier</t>
   </si>
   <si>
-    <t>Réalisation des organigrammes évolués</t>
-  </si>
-  <si>
     <t>Déscription VHDL des blocs</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>Présentation intérmédaiire et corrections</t>
+  </si>
+  <si>
+    <t>Réalisation de organigramme évolué</t>
   </si>
 </sst>
 </file>
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AK76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1087,7 +1087,7 @@
     <row r="3" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="71"/>
       <c r="D4" s="1"/>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="12" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B12" s="50" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C12" s="51"/>
       <c r="D12" s="52"/>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B14" s="50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="51"/>
       <c r="D14" s="52"/>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="16" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B16" s="50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="51"/>
       <c r="D16" s="52"/>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="18" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B18" s="50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="51"/>
       <c r="D18" s="52"/>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="20" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B20" s="74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="75"/>
       <c r="D20" s="76"/>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="22" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B22" s="74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="75"/>
       <c r="D22" s="76"/>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="24" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B24" s="47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="49"/>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="26" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B26" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="28" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B28" s="50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="30" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B30" s="50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
